--- a/employee/storage/employees.xlsx
+++ b/employee/storage/employees.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -48,49 +47,31 @@
     <t>Trưởng Phòng</t>
   </si>
   <si>
-    <t>Plane1</t>
+    <t>Nguyen Tien Dat</t>
+  </si>
+  <si>
+    <t>nguyentiendat@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>Nguyen Tien A</t>
+  </si>
+  <si>
+    <t>nguyenvana@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Tien B</t>
+  </si>
+  <si>
+    <t>nguyenvanb@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Tien C</t>
   </si>
   <si>
     <t>nguyenvanc@gmail.com</t>
-  </si>
-  <si>
-    <t>Nhân Viên</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>nguyenA@mail.com</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>tranB@mail.com</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>Phạm C</t>
-  </si>
-  <si>
-    <t>phamC@mail.com</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Lê D</t>
-  </si>
-  <si>
-    <t>leD@mail.com</t>
-  </si>
-  <si>
-    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -432,7 +413,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -482,7 +463,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -492,7 +473,7 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -501,7 +482,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -511,48 +492,48 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G6"/>
     </row>
@@ -570,75 +551,4 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2"/>
-    </row>
-  </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
 </file>
--- a/employee/storage/employees.xlsx
+++ b/employee/storage/employees.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Worksheet 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Worksheet 3" sheetId="4" r:id="rId7"/>
+    <sheet name="Worksheet 4" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -35,7 +39,10 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
   <si>
     <t>Nguyen Tien Manh</t>
@@ -44,34 +51,49 @@
     <t>manhnthe170866@fpt.edu.vn</t>
   </si>
   <si>
-    <t>Trưởng Phòng</t>
-  </si>
-  <si>
-    <t>Nguyen Tien Dat</t>
-  </si>
-  <si>
-    <t>nguyentiendat@gmail.com</t>
-  </si>
-  <si>
     <t>Nhân Viên</t>
   </si>
   <si>
-    <t>Nguyen Tien A</t>
-  </si>
-  <si>
-    <t>nguyenvana@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyen Tien B</t>
-  </si>
-  <si>
-    <t>nguyenvanb@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyen Tien C</t>
-  </si>
-  <si>
-    <t>nguyenvanc@gmail.com</t>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>nguyenA@mail.com</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Trần Thị B</t>
+  </si>
+  <si>
+    <t>tranB@mail.com</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Phạm C</t>
+  </si>
+  <si>
+    <t>phamC@mail.com</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Lê D</t>
+  </si>
+  <si>
+    <t>leD@mail.com</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -411,7 +433,323 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +757,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,101 +779,33 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2"/>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
